--- a/Team-Data/2013-14/11-21-2013-14.xlsx
+++ b/Team-Data/2013-14/11-21-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -762,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -795,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
@@ -992,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1144,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="AP4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
@@ -1168,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,13 +1390,13 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
@@ -1347,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -1394,133 +1461,133 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>79.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M6" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>19.9</v>
       </c>
       <c r="P6" t="n">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.824</v>
+        <v>0.84</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="T6" t="n">
-        <v>47.1</v>
+        <v>45.9</v>
       </c>
       <c r="U6" t="n">
         <v>22.1</v>
       </c>
       <c r="V6" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>94</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
         <v>6</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>14</v>
@@ -1529,25 +1596,25 @@
         <v>24</v>
       </c>
       <c r="AW6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1857,25 +1924,25 @@
         <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
         <v>4</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1899,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -1940,94 +2007,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.455</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J9" t="n">
-        <v>88.2</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.697</v>
+        <v>0.71</v>
       </c>
       <c r="R9" t="n">
         <v>13.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T9" t="n">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V9" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>6.2</v>
-      </c>
       <c r="Z9" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.7</v>
+        <v>104.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -2048,16 +2115,16 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
@@ -2066,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>15</v>
@@ -2075,25 +2142,25 @@
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
         <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
@@ -2236,7 +2303,7 @@
         <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
@@ -2400,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>3</v>
@@ -2421,13 +2488,13 @@
         <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>27</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -2570,10 +2637,10 @@
         <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
@@ -2603,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
         <v>19</v>
@@ -2612,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>16</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2779,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
@@ -2791,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
@@ -2800,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>83.8</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M14" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.347</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.721</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
         <v>25.7</v>
       </c>
       <c r="V14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
         <v>9.1</v>
       </c>
       <c r="X14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.6</v>
+        <v>24.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2946,52 +3013,52 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
         <v>16</v>
       </c>
       <c r="AO14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR14" t="n">
         <v>8</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>10</v>
       </c>
       <c r="AS14" t="n">
         <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3119,7 +3186,7 @@
         <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>17</v>
@@ -3131,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>2</v>
@@ -3149,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR15" t="n">
         <v>18</v>
@@ -3164,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3176,7 +3243,7 @@
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3310,7 +3377,7 @@
         <v>18</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
         <v>19</v>
@@ -3349,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="AW16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX16" t="n">
         <v>28</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>9.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -3880,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>10</v>
@@ -3901,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="AX21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
         <v>12</v>
@@ -4274,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -4306,88 +4373,88 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.441</v>
       </c>
       <c r="L22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>0.315</v>
+        <v>0.325</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="P22" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.822</v>
       </c>
       <c r="R22" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="T22" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="U22" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>16.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4399,7 +4466,7 @@
         <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>16</v>
@@ -4414,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4423,43 +4490,43 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB22" t="n">
         <v>7</v>
       </c>
-      <c r="AY22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>6</v>
-      </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4636,7 @@
         <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>18</v>
@@ -4578,7 +4645,7 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>14</v>
@@ -4614,7 +4681,7 @@
         <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -4787,13 +4854,13 @@
         <v>14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>15</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>7</v>
@@ -4811,7 +4878,7 @@
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>16</v>
@@ -4957,7 +5024,7 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5154,7 +5221,7 @@
         <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
         <v>13</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
@@ -5184,7 +5251,7 @@
         <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5364,7 @@
         <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
@@ -5312,7 +5379,7 @@
         <v>22</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5327,10 +5394,10 @@
         <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5351,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX27" t="n">
         <v>30</v>
@@ -5363,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>16</v>
@@ -5506,7 +5573,7 @@
         <v>22</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5539,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>0.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5667,7 +5734,7 @@
         <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5688,10 +5755,10 @@
         <v>15</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -5858,13 +5925,13 @@
         <v>28</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
         <v>28</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
         <v>24</v>
@@ -5879,10 +5946,10 @@
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
@@ -5906,10 +5973,10 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6092,7 @@
         <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="n">
         <v>18</v>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-21-2013-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
     </row>
